--- a/Inputs/ProgramData.xlsx
+++ b/Inputs/ProgramData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model_0113\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Working folder\profound-model_RI\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BC8A8-B1D4-4BD4-8A99-BC9CD7CDE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079940A-8BBA-40A3-9C2E-DD0CA428D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2370" windowWidth="12570" windowHeight="5670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>SSP</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>MailEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outreach</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +174,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +190,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,14 +217,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B2" sqref="B2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -509,552 +533,789 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1.2096774193548388E-3</v>
-      </c>
-      <c r="C2">
-        <v>3.1271716469770672E-2</v>
-      </c>
-      <c r="D2">
-        <v>4.1507024265644954E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>1.2028869286287089E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.1163434903047092E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.1480536056158264E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.0726649161352555E-3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>8.870967741935484E-3</v>
-      </c>
-      <c r="C3">
-        <v>3.4051424600416956E-2</v>
-      </c>
-      <c r="D3">
-        <v>4.2784163473818644E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>8.8211708099438652E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.3933518005540168E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.2756860242501596E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.741600128610471E-2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1.2096774193548388E-3</v>
-      </c>
-      <c r="C4">
-        <v>5.5594162612925642E-3</v>
-      </c>
-      <c r="D4">
-        <v>3.8314176245210726E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1.2028869286287089E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.5401662049861496E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.8289725590299937E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.607630887948127E-2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.3306451612903225E-2</v>
-      </c>
-      <c r="C5">
-        <v>9.7289784572619879E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.0217113665389528E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1.3231756214915798E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.6952908587257611E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.021059349074665E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0771126949252452E-2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1.6129032258064516E-3</v>
-      </c>
-      <c r="C6">
-        <v>2.7797081306462821E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.9157088122605363E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>1.6038492381716118E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7700831024930748E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.9144862795149968E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.0190772198703175E-3</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2.4193548387096775E-3</v>
-      </c>
-      <c r="C7">
-        <v>2.9881862404447533E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.0651340996168581E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>2.4057738572574178E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.9778393351800554E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.0631780472239949E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.875569369272815E-2</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>3.6290322580645164E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.21334259902710215</v>
-      </c>
-      <c r="D8">
-        <v>5.108556832694764E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>3.6086607858861267E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21329639889196675</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.105296745373325E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.3971920047157173E-2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>3.2258064516129032E-3</v>
-      </c>
-      <c r="C9">
-        <v>6.9492703266157054E-3</v>
-      </c>
-      <c r="D9">
-        <v>1.6602809706257982E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>3.2076984763432237E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.9252077562326868E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.6592214422463305E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.1950056267081078E-2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>8.0645161290322581E-4</v>
-      </c>
-      <c r="C10">
-        <v>5.5594162612925642E-3</v>
-      </c>
-      <c r="D10">
-        <v>4.4699872286079181E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8.0192461908580592E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.5401662049861496E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.4671346522016592E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.5195327152885694E-3</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1.5725806451612902E-2</v>
-      </c>
-      <c r="C11">
-        <v>6.6018068102849201E-2</v>
-      </c>
-      <c r="D11">
-        <v>2.681992337164751E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>1.5637530072173216E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.5789473684210523E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.6802807913209957E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.802636514656235E-2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1.2096774193548388E-3</v>
-      </c>
-      <c r="C12">
-        <v>4.864489228630994E-3</v>
-      </c>
-      <c r="D12">
-        <v>3.1928480204342275E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>1.2028869286287089E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.8476454293628806E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.1908104658583281E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.8583141310755049E-3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1.389854065323141E-3</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>1.3850415512465374E-3</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="2">
+        <v>3.9654895236053804E-3</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>1.389854065323141E-3</v>
-      </c>
-      <c r="D14">
-        <v>3.1928480204342275E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>1.3850415512465374E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.1908104658583281E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.7329725095118162E-3</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>4.032258064516129E-4</v>
-      </c>
-      <c r="C15">
-        <v>6.9492703266157052E-4</v>
-      </c>
-      <c r="D15">
-        <v>1.9157088122605363E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>4.0096230954290296E-4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.925207756232687E-4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.9144862795149968E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.4832002572209421E-3</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1.2096774193548388E-3</v>
-      </c>
-      <c r="C16">
-        <v>6.9492703266157052E-4</v>
-      </c>
-      <c r="D16">
-        <v>1.277139208173691E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>1.2028869286287089E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.925207756232687E-4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.2763241863433313E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.4305235517925089E-4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>5.6451612903225803E-3</v>
-      </c>
-      <c r="C17">
-        <v>1.320361362056984E-2</v>
-      </c>
-      <c r="D17">
-        <v>1.2132822477650063E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>5.6134723336006415E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.2125079770261647E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.2045442366432669E-2</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>4.435483870967742E-3</v>
-      </c>
-      <c r="C18">
-        <v>1.0423905489923557E-2</v>
-      </c>
-      <c r="D18">
-        <v>1.0855683269476373E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>4.4105854049719326E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.038781163434903E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.0848755583918315E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.6094528696211347E-3</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1.277139208173691E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>1.2763241863433313E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.4305235517925089E-4</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>4.435483870967742E-3</v>
-      </c>
-      <c r="C20">
-        <v>3.4746351633078527E-3</v>
-      </c>
-      <c r="D20">
-        <v>1.0217113665389528E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>4.4105854049719326E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.4626038781163434E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.021059349074665E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.4477787899898187E-3</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>4.032258064516129E-4</v>
-      </c>
-      <c r="C21">
-        <v>1.3898540653231411E-2</v>
-      </c>
-      <c r="D21">
-        <v>8.9399744572158362E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>4.0096230954290296E-4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.3850415512465374E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8.9342693044033184E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.3951020845613846E-3</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="2">
+        <v>4.1262526124001926E-3</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.8763029881862403E-2</v>
-      </c>
-      <c r="D23">
-        <v>3.1289910600255426E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>1.2830793905372895E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.8698060941828253E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.1269942565411615E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.0396013075397888E-2</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>2.8225806451612902E-3</v>
-      </c>
-      <c r="C24">
-        <v>1.3898540653231411E-2</v>
-      </c>
-      <c r="D24">
-        <v>4.2145593869731802E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>2.8067361668003207E-3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.3850415512465374E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.2118698149329926E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5400568029580409E-2</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1.0887096774193548E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.250868658790827E-2</v>
-      </c>
-      <c r="D25">
-        <v>1.4687100893997445E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>1.082598235765838E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.2465373961218837E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.4677728142948309E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.784470285622421E-2</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>2.8225806451612902E-3</v>
-      </c>
-      <c r="C26">
-        <v>4.864489228630994E-3</v>
-      </c>
-      <c r="D26">
-        <v>7.0242656449553001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>2.8067361668003207E-3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.8476454293628806E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7.0197830248883214E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5.6802958040833825E-3</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.15403225806451612</v>
-      </c>
-      <c r="C27">
-        <v>3.6136205698401667E-2</v>
-      </c>
-      <c r="D27">
-        <v>3.5121328224776503E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>0.15396952686447474</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.6011080332409975E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.5098915124441611E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>9.8119071861100693E-2</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>4.0322580645161289E-3</v>
-      </c>
-      <c r="C28">
-        <v>1.389854065323141E-3</v>
-      </c>
-      <c r="D28">
-        <v>2.0434227330779056E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>4.0096230954290296E-3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.3850415512465374E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.0421186981493301E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.8056374256470712E-3</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>0.62983870967741939</v>
-      </c>
-      <c r="C29">
-        <v>0.17442668519805421</v>
-      </c>
-      <c r="D29">
-        <v>0.20689655172413793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>0.63031275060144343</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.17520775623268697</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.20676451818761965</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.29333904935426824</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>7.6612903225806448E-3</v>
-      </c>
-      <c r="C30">
-        <v>7.6441973592772756E-3</v>
-      </c>
-      <c r="D30">
-        <v>2.554278416347382E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>7.6182838813151563E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7.6177285318559558E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.5526483726866626E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>9.3778468463640748E-3</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>4.032258064516129E-4</v>
-      </c>
-      <c r="C31">
-        <v>2.640722724113968E-2</v>
-      </c>
-      <c r="D31">
-        <v>4.4699872286079181E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>4.0096230954290296E-4</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.4671346522016592E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.3406033974599436E-3</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>4.435483870967742E-3</v>
-      </c>
-      <c r="C32">
-        <v>6.2543432939541352E-3</v>
-      </c>
-      <c r="D32">
-        <v>8.3014048531289911E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>4.4105854049719326E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6.2326869806094186E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.2961072112316524E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7.2879266920315095E-3</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>2.4193548387096775E-3</v>
-      </c>
-      <c r="C33">
-        <v>1.4593467685892982E-2</v>
-      </c>
-      <c r="D33">
-        <v>1.5964240102171137E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>2.4057738572574178E-3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.4542936288088643E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.5954052329291639E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.7308825893574836E-2</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>2.0161290322580645E-3</v>
-      </c>
-      <c r="C34">
-        <v>4.1695621959694229E-3</v>
-      </c>
-      <c r="D34">
-        <v>1.40485312899106E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>2.0048115477145148E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4.1551246537396124E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.4039566049776643E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3.8583141310755049E-3</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>5.6451612903225803E-3</v>
-      </c>
-      <c r="C35">
-        <v>3.4051424600416956E-2</v>
-      </c>
-      <c r="D35">
-        <v>1.6602809706257982E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>5.6134723336006415E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3.3933518005540168E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.6592214422463305E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>7.0199882107068214E-3</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>2.7822580645161292E-2</v>
-      </c>
-      <c r="C36">
-        <v>8.2696316886726892E-2</v>
-      </c>
-      <c r="D36">
-        <v>5.6194125159642401E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>2.8067361668003207E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8.3795013850415517E-2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.6158264199106571E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7.2129039172605963E-2</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>4.032258064516129E-4</v>
-      </c>
-      <c r="C37">
-        <v>2.0847810979847115E-3</v>
-      </c>
-      <c r="D37">
-        <v>4.4699872286079181E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>4.0096230954290296E-4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2.0775623268698062E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4.4671346522016592E-3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3.5903756497508172E-3</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>4.0322580645161289E-3</v>
-      </c>
-      <c r="C38">
-        <v>2.8492008339124391E-2</v>
-      </c>
-      <c r="D38">
-        <v>7.151979565772669E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>4.0096230954290296E-3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2.8393351800554016E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7.1474154435226547E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.1509565403783295E-2</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>2.4193548387096775E-3</v>
-      </c>
-      <c r="C39">
-        <v>1.0423905489923557E-2</v>
-      </c>
-      <c r="D39">
-        <v>2.554278416347382E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>2.4057738572574178E-3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.038781163434903E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.5526483726866626E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.2506832431273778E-2</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>2.3387096774193549E-2</v>
-      </c>
-      <c r="C40">
-        <v>6.6018068102849201E-2</v>
-      </c>
-      <c r="D40">
-        <v>0.16283524904214558</v>
-      </c>
+      <c r="B40" s="2">
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6.5789473684210523E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.16336949585194641</v>
+      </c>
+      <c r="E40" s="2">
+        <v>9.1956486790632869E-2</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
